--- a/notebooks/Movie Recommendation 2024 (Responses).xlsx
+++ b/notebooks/Movie Recommendation 2024 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Timestamp</t>
   </si>
@@ -284,6 +284,195 @@
   </si>
   <si>
     <t>Heer</t>
+  </si>
+  <si>
+    <t>Aaryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isha Narang </t>
+  </si>
+  <si>
+    <t>Vishal pal</t>
+  </si>
+  <si>
+    <t>Dablu Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishabh Patidar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prajakta Shigwan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashraj J Deshmukh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deven Patil </t>
+  </si>
+  <si>
+    <t>Shubh Singhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratham Sagar </t>
+  </si>
+  <si>
+    <t>Ruchika</t>
+  </si>
+  <si>
+    <t>Gaurav Rawat</t>
+  </si>
+  <si>
+    <t>Modi Chirag Santoshkumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARJI PRIYA RAJESHKUMAR </t>
+  </si>
+  <si>
+    <t>Anirudh Gowribhatla</t>
+  </si>
+  <si>
+    <t>Ayush Modi</t>
+  </si>
+  <si>
+    <t>Mohammad Rashid Pathan</t>
+  </si>
+  <si>
+    <t>Diya Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishit Mistry </t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>Aashu Singhal</t>
+  </si>
+  <si>
+    <t>Aryan Gupta</t>
+  </si>
+  <si>
+    <t>Shreya Patel</t>
+  </si>
+  <si>
+    <t>Omkar Rajeev Prabhu</t>
+  </si>
+  <si>
+    <t>Nihar Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai Krishna </t>
+  </si>
+  <si>
+    <t>Mithil Pechimuthu</t>
+  </si>
+  <si>
+    <t>Yash Bothra</t>
+  </si>
+  <si>
+    <t>Zaqi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manas Kawal </t>
+  </si>
+  <si>
+    <t>Siya Patil</t>
+  </si>
+  <si>
+    <t>Gaurav Kumar</t>
+  </si>
+  <si>
+    <t>Sujal Patel</t>
+  </si>
+  <si>
+    <t>Anshu Kale</t>
+  </si>
+  <si>
+    <t>Parth Deshpande</t>
+  </si>
+  <si>
+    <t>Aarav Shah</t>
+  </si>
+  <si>
+    <t>Ankita Mohanpuriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Gupte </t>
+  </si>
+  <si>
+    <t>Darshi Doshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedant Kumbhar </t>
+  </si>
+  <si>
+    <t>Rutuja Kadam</t>
+  </si>
+  <si>
+    <t>Ayush Bhalala</t>
+  </si>
+  <si>
+    <t>Sahil Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anutosh Jaishwal </t>
+  </si>
+  <si>
+    <t>Siddhartha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhani </t>
+  </si>
+  <si>
+    <t>Neerja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Madhukar </t>
+  </si>
+  <si>
+    <t>Madhav Biswam</t>
+  </si>
+  <si>
+    <t>Vraj Shah</t>
+  </si>
+  <si>
+    <t>Khushal Ramani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astitva Aryan </t>
+  </si>
+  <si>
+    <t>Chandrabhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kareena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Agrawal </t>
+  </si>
+  <si>
+    <t>Dewansh Singh Chandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Kumar Kushwaha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish Rawat </t>
+  </si>
+  <si>
+    <t>Preyum Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitesh Jaiswal </t>
   </si>
 </sst>
 </file>
@@ -3142,6 +3331,2025 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45328.64865422454</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45328.75731449074</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45328.758571493054</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45328.80032070602</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45328.801404756945</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45328.81733961806</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45328.81946327546</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45328.820103101854</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45328.828117083336</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45328.834682280096</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45328.84153329861</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45328.845700011574</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45328.898216643516</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45328.90263834491</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45328.92418402778</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45328.93360434027</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45328.93977028935</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45328.9846233912</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45328.985484930556</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45328.9869421412</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45329.04495052084</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45329.04546173611</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45329.06048932871</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L104" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45329.0607465162</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K105" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L105" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45329.06689456019</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45329.06920087963</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F107" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L107" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45329.07048996528</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F108" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L108" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45329.08218755787</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F109" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45329.26068432871</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45329.28041025463</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F111" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L111" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45329.341201250005</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L112" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45329.34145552083</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J113" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L113" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45329.350857812504</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F114" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L114" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45329.35145649305</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L115" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45329.35377430556</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F116" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I116" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L116" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45329.3540847338</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L117" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45329.3542303588</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L118" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45329.354436249996</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I119" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J119" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L119" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45329.354460393515</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45329.35452521991</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D121" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L121" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45329.35475480324</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I122" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L122" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45329.35477385417</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J123" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L123" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45329.354786145836</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F124" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J124" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L124" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45329.354839618056</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L125" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45329.35496020834</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F126" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J126" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L126" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45329.35563515047</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45329.35568511574</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F128" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I128" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L128" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45329.355737881946</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F129" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I129" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L129" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45329.35583976852</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F130" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I130" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L130" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45329.3559262037</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I131" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L131" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45329.35627063658</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I132" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L132" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45329.35642872685</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I133" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J133" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L133" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45329.35651725694</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J134" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L134" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45329.35655747685</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I135" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L135" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45329.356666527776</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F136" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I136" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L136" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45329.35680866898</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F137" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I137" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J137" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L137" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45329.35694804398</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F138" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L138" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45329.357185138884</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F139" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I139" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L139" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45329.35746028935</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F140" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I140" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L140" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45329.357575277776</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L141" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45329.35816491898</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I142" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L142" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45329.358460324074</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I143" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L143" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45329.35927677083</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F144" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G144" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I144" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L144" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
